--- a/data/trans_orig/P20B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P20B-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>2937</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0</v>
+        <v>776</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6408</v>
+        <v>6176</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2901779969113835</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0</v>
+        <v>0.07665644932329094</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6331568461310522</v>
+        <v>0.6102174282633323</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3912</v>
+        <v>4524</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03183798477508298</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1379989348562463</v>
+        <v>0.1595719705870408</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -786,19 +786,19 @@
         <v>3840</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>957</v>
+        <v>940</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8915</v>
+        <v>8826</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09980616276785725</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02487147228573248</v>
+        <v>0.02442375594272562</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2317347342181535</v>
+        <v>0.2294313493413346</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>7184</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3713</v>
+        <v>3945</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10121</v>
+        <v>9345</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7098220030886164</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3668431538689484</v>
+        <v>0.3897825717366678</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>1</v>
+        <v>0.923343550676709</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -836,7 +836,7 @@
         <v>27446</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24437</v>
+        <v>23825</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>28349</v>
@@ -845,7 +845,7 @@
         <v>0.9681620152249171</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8620010651437533</v>
+        <v>0.8404280294129596</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>34631</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>29556</v>
+        <v>29645</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>37514</v>
+        <v>37531</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9001938372321427</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7682652657818465</v>
+        <v>0.7705686506586649</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9751285277142675</v>
+        <v>0.9755762440572743</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>5852</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2643</v>
+        <v>2605</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10268</v>
+        <v>10091</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2503806628421028</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1130824645831916</v>
+        <v>0.1114742701789423</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4393449084110205</v>
+        <v>0.4317873536058134</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -982,19 +982,19 @@
         <v>5870</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2155</v>
+        <v>2681</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11605</v>
+        <v>12822</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08007185752801334</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02938754796374615</v>
+        <v>0.03657190710634408</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1582868145808817</v>
+        <v>0.1748851358129009</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>11722</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6450</v>
+        <v>6946</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19100</v>
+        <v>19920</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1212390756636086</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06670764525108677</v>
+        <v>0.07184216165393806</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1975454588675397</v>
+        <v>0.2060227209587062</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>17519</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13103</v>
+        <v>13280</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20728</v>
+        <v>20766</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7496193371578972</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.56065509158898</v>
+        <v>0.5682126463941866</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8869175354168085</v>
+        <v>0.8885257298210584</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>63</v>
@@ -1053,19 +1053,19 @@
         <v>67445</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>61710</v>
+        <v>60493</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>71160</v>
+        <v>70634</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9199281424719866</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8417131854191184</v>
+        <v>0.8251148641870991</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9706124520362539</v>
+        <v>0.9634280928936559</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>80</v>
@@ -1074,19 +1074,19 @@
         <v>84964</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>77586</v>
+        <v>76766</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>90236</v>
+        <v>89740</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8787609243363914</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8024545411324603</v>
+        <v>0.7939772790412938</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9332923547489131</v>
+        <v>0.9281578383460619</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>6796</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2951</v>
+        <v>2926</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11098</v>
+        <v>11025</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3804172602138507</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1651665020549471</v>
+        <v>0.1637824818580661</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6212520391216704</v>
+        <v>0.617169651785566</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1199,19 +1199,19 @@
         <v>6248</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2551</v>
+        <v>2717</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11057</v>
+        <v>11561</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1844450854755944</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07529575934640485</v>
+        <v>0.08020606209594393</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3263761068148444</v>
+        <v>0.3412716904649769</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1220,19 +1220,19 @@
         <v>13044</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6938</v>
+        <v>7632</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18858</v>
+        <v>19379</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2521058812105924</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1340852074054715</v>
+        <v>0.1474984147694827</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3644703458765132</v>
+        <v>0.3745290955093954</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>11068</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6766</v>
+        <v>6839</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14913</v>
+        <v>14938</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6195827397861493</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3787479608783296</v>
+        <v>0.382830348214434</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8348334979450523</v>
+        <v>0.8362175181419338</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -1270,19 +1270,19 @@
         <v>27629</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22820</v>
+        <v>22316</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>31326</v>
+        <v>31160</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8155549145244056</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6736238931851556</v>
+        <v>0.6587283095350231</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9247042406535951</v>
+        <v>0.9197939379040561</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>37</v>
@@ -1291,19 +1291,19 @@
         <v>38697</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>32883</v>
+        <v>32362</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>44803</v>
+        <v>44109</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7478941187894076</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6355296541234868</v>
+        <v>0.6254709044906043</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8659147925945284</v>
+        <v>0.8525015852305172</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>3806</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1023</v>
+        <v>953</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8320</v>
+        <v>8336</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1703132055128044</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04576741893973801</v>
+        <v>0.04265199730674174</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3723246514963086</v>
+        <v>0.3730329659777805</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1416,19 +1416,19 @@
         <v>9853</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5794</v>
+        <v>5754</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14956</v>
+        <v>14784</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3810913139655155</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2240714204164266</v>
+        <v>0.2225320643390901</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5784497367457353</v>
+        <v>0.5717689663087723</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1437,19 +1437,19 @@
         <v>13659</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8268</v>
+        <v>8286</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20851</v>
+        <v>20710</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.283376795413141</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1715261182996654</v>
+        <v>0.1718965365227733</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4325716065913998</v>
+        <v>0.4296525811788949</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>18540</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14026</v>
+        <v>14010</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21323</v>
+        <v>21393</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8296867944871956</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6276753485036917</v>
+        <v>0.6269670340222195</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.954232581060262</v>
+        <v>0.9573480026932583</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -1487,19 +1487,19 @@
         <v>16003</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10900</v>
+        <v>11072</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>20062</v>
+        <v>20102</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6189086860344845</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4215502632542648</v>
+        <v>0.4282310336912277</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7759285795835734</v>
+        <v>0.7774679356609099</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>33</v>
@@ -1508,19 +1508,19 @@
         <v>34543</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>27351</v>
+        <v>27492</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>39934</v>
+        <v>39916</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7166232045868589</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5674283934086003</v>
+        <v>0.5703474188211044</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8284738817003349</v>
+        <v>0.8281034634772266</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>8100</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4425</v>
+        <v>4457</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11708</v>
+        <v>12478</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4526069823226541</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2472495512752297</v>
+        <v>0.2490586279995584</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.654203012470926</v>
+        <v>0.6971949927936352</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1633,19 +1633,19 @@
         <v>11792</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7235</v>
+        <v>6680</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17150</v>
+        <v>16493</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4779528994120566</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2932652916086267</v>
+        <v>0.270755790063826</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6951121987777485</v>
+        <v>0.6684712151664985</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -1654,19 +1654,19 @@
         <v>19892</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13904</v>
+        <v>13382</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26516</v>
+        <v>26008</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.467296862692604</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3266305563639955</v>
+        <v>0.3143531760463514</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.622892720484804</v>
+        <v>0.6109608371171124</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>9797</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6189</v>
+        <v>5419</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13472</v>
+        <v>13440</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5473930176773459</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3457969875290738</v>
+        <v>0.3028050072063646</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7527504487247703</v>
+        <v>0.7509413720004416</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -1704,19 +1704,19 @@
         <v>12880</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7522</v>
+        <v>8179</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17437</v>
+        <v>17992</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5220471005879433</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3048878012222515</v>
+        <v>0.3315287848335015</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7067347083913734</v>
+        <v>0.729244209936174</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -1725,19 +1725,19 @@
         <v>22677</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16053</v>
+        <v>16561</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>28665</v>
+        <v>29187</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5327031373073959</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3771072795151964</v>
+        <v>0.3890391628828876</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6733694436360045</v>
+        <v>0.6856468239536486</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>5006</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1759</v>
+        <v>1718</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9850</v>
+        <v>9687</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2188913071715732</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07690853138002983</v>
+        <v>0.07511767954526818</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4307126821901819</v>
+        <v>0.4235609361850713</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -1850,19 +1850,19 @@
         <v>9962</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5447</v>
+        <v>6151</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15327</v>
+        <v>15347</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.338865788560797</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1852827164323067</v>
+        <v>0.2092082174812497</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5213278477139516</v>
+        <v>0.5220093615013748</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -1871,19 +1871,19 @@
         <v>14968</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9268</v>
+        <v>9672</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22080</v>
+        <v>22441</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.286371244875558</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1773178851873065</v>
+        <v>0.185038581311047</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4224262977952857</v>
+        <v>0.429342059027324</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>17864</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13020</v>
+        <v>13183</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21111</v>
+        <v>21152</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7811086928284268</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.569287317809818</v>
+        <v>0.5764390638149286</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9230914686199702</v>
+        <v>0.9248823204547318</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -1921,19 +1921,19 @@
         <v>19437</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14072</v>
+        <v>14052</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>23952</v>
+        <v>23248</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.661134211439203</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4786721522860485</v>
+        <v>0.4779906384986253</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8147172835676932</v>
+        <v>0.7907917825187503</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>40</v>
@@ -1942,19 +1942,19 @@
         <v>37301</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>30189</v>
+        <v>29828</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>43001</v>
+        <v>42597</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.713628755124442</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5775737022047143</v>
+        <v>0.5706579409726761</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8226821148126935</v>
+        <v>0.8149614186889531</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>2666</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>802</v>
+        <v>816</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6963</v>
+        <v>6923</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1366578914426052</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04112556805613574</v>
+        <v>0.04180313133301719</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3568804169047515</v>
+        <v>0.3548021956350619</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -2067,19 +2067,19 @@
         <v>5529</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2152</v>
+        <v>2110</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10573</v>
+        <v>11280</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1680583024630538</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06541697307063883</v>
+        <v>0.06413125733993524</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3213589445679092</v>
+        <v>0.3428595861859705</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>8</v>
@@ -2088,19 +2088,19 @@
         <v>8196</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3382</v>
+        <v>3987</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>14139</v>
+        <v>14233</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1563683464887173</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06453665063190962</v>
+        <v>0.07606890342995545</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.269772022423626</v>
+        <v>0.2715659131705742</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>16846</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12549</v>
+        <v>12589</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18710</v>
+        <v>18696</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8633421085573948</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6431195830952485</v>
+        <v>0.6451978043649376</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9588744319438642</v>
+        <v>0.9581968686669828</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>25</v>
@@ -2138,19 +2138,19 @@
         <v>27371</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>22327</v>
+        <v>21620</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>30748</v>
+        <v>30790</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8319416975369461</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6786410554320921</v>
+        <v>0.6571404138140297</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9345830269293612</v>
+        <v>0.9358687426600648</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>42</v>
@@ -2159,19 +2159,19 @@
         <v>44216</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>38273</v>
+        <v>38179</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>49030</v>
+        <v>48425</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8436316535112828</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7302279775763739</v>
+        <v>0.7284340868294257</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9354633493680904</v>
+        <v>0.9239310965700446</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>35163</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24526</v>
+        <v>25427</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>45410</v>
+        <v>45453</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.262447049217092</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1830524697558018</v>
+        <v>0.18977884689868</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3389237593735156</v>
+        <v>0.3392457584281728</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>52</v>
@@ -2284,19 +2284,19 @@
         <v>50158</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39060</v>
+        <v>38647</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>63100</v>
+        <v>63997</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2019519654144937</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1572661301764162</v>
+        <v>0.1556056068906921</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2540611946219508</v>
+        <v>0.2576700904987361</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>89</v>
@@ -2305,19 +2305,19 @@
         <v>85321</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>69399</v>
+        <v>69022</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>100473</v>
+        <v>101327</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2231504842371767</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1815077311453312</v>
+        <v>0.1805203362427505</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2627774922395265</v>
+        <v>0.2650107077365864</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>98819</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>88572</v>
+        <v>88529</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>109456</v>
+        <v>108555</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7375529507829081</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6610762406264841</v>
+        <v>0.6607542415718272</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8169475302441982</v>
+        <v>0.8102211531013199</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>189</v>
@@ -2355,19 +2355,19 @@
         <v>198209</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>185267</v>
+        <v>184370</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>209307</v>
+        <v>209720</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7980480345855063</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7459388053780496</v>
+        <v>0.742329909501264</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8427338698235841</v>
+        <v>0.844394393109308</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>287</v>
@@ -2376,19 +2376,19 @@
         <v>297028</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>281876</v>
+        <v>281022</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>312950</v>
+        <v>313327</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7768495157628234</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7372225077604736</v>
+        <v>0.734989292263414</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.818492268854669</v>
+        <v>0.8194796637572503</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>4507</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8641</v>
+        <v>8630</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3043219672242336</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08102706208132188</v>
+        <v>0.080349638066779</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.583466488130979</v>
+        <v>0.5827844435028493</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -2744,19 +2744,19 @@
         <v>4020</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8240</v>
+        <v>8415</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1141926914911663</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02844811393653848</v>
+        <v>0.02836852238873058</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2340404732398005</v>
+        <v>0.239019197718104</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -2765,19 +2765,19 @@
         <v>8527</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4128</v>
+        <v>4050</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14909</v>
+        <v>15251</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1704861522791273</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08253369074765927</v>
+        <v>0.08096473361976889</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2980758112741629</v>
+        <v>0.3049190318447335</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>10302</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6168</v>
+        <v>6179</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13609</v>
+        <v>13619</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6956780327757665</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4165335118690212</v>
+        <v>0.4172155564971508</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9189729379186782</v>
+        <v>0.9196503619332212</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -2815,19 +2815,19 @@
         <v>31187</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26967</v>
+        <v>26792</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34205</v>
+        <v>34208</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8858073085088336</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7659595267601996</v>
+        <v>0.7609808022818962</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9715518860634615</v>
+        <v>0.9716314776112696</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>41</v>
@@ -2836,19 +2836,19 @@
         <v>41489</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>35107</v>
+        <v>34765</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>45888</v>
+        <v>45966</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8295138477208727</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7019241887258372</v>
+        <v>0.6950809681552664</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9174663092523407</v>
+        <v>0.919035266380231</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>5517</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1949</v>
+        <v>1905</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10357</v>
+        <v>10715</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.186855434682825</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.065999748816887</v>
+        <v>0.06453037786500791</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3507959277500302</v>
+        <v>0.3629374474908899</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -2964,16 +2964,16 @@
         <v>1974</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10449</v>
+        <v>11044</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05814489956829158</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02315975407637829</v>
+        <v>0.02316243442838836</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1226020685959814</v>
+        <v>0.1295862267762078</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -2982,19 +2982,19 @@
         <v>10472</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5453</v>
+        <v>5772</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17472</v>
+        <v>17793</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09126072602077163</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0475244860499764</v>
+        <v>0.05030606452921206</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1522682164467977</v>
+        <v>0.155063282163696</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>24006</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19166</v>
+        <v>18808</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27574</v>
+        <v>27618</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8131445653171749</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6492040722499698</v>
+        <v>0.6370625525091103</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.934000251183113</v>
+        <v>0.9354696221349921</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>76</v>
@@ -3032,7 +3032,7 @@
         <v>80269</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>74775</v>
+        <v>74180</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>83250</v>
@@ -3041,10 +3041,10 @@
         <v>0.9418551004317084</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8773979314040184</v>
+        <v>0.8704137732237921</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9768402459236217</v>
+        <v>0.9768375655716116</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>99</v>
@@ -3053,19 +3053,19 @@
         <v>104275</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>97275</v>
+        <v>96954</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>109294</v>
+        <v>108975</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9087392739792284</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8477317835532023</v>
+        <v>0.8449367178363043</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9524755139500236</v>
+        <v>0.949693935470788</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>12259</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6603</v>
+        <v>6661</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19019</v>
+        <v>19489</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3295266958418172</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1774882790439364</v>
+        <v>0.1790453716998021</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5112259904494278</v>
+        <v>0.5238687025990533</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -3178,19 +3178,19 @@
         <v>17898</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10755</v>
+        <v>11527</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24703</v>
+        <v>26063</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3202037160111431</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1924110906948718</v>
+        <v>0.2062162539909916</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.441944550896512</v>
+        <v>0.4662652632591468</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -3199,19 +3199,19 @@
         <v>30158</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21913</v>
+        <v>21054</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39483</v>
+        <v>40209</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3239291957489812</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2353702990794037</v>
+        <v>0.2261485092981397</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4240897469567789</v>
+        <v>0.4318931410769875</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>24944</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18184</v>
+        <v>17714</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30600</v>
+        <v>30542</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6704733041581828</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4887740095505721</v>
+        <v>0.4761312974009467</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8225117209560638</v>
+        <v>0.8209546283001979</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>34</v>
@@ -3249,19 +3249,19 @@
         <v>37999</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>31194</v>
+        <v>29834</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>45142</v>
+        <v>44370</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6797962839888568</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.558055449103488</v>
+        <v>0.5337347367408534</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8075889093051282</v>
+        <v>0.7937837460090084</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>56</v>
@@ -3270,19 +3270,19 @@
         <v>62942</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>53617</v>
+        <v>52891</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>71187</v>
+        <v>72046</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6760708042510188</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5759102530432212</v>
+        <v>0.5681068589230124</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7646297009205962</v>
+        <v>0.7738514907018604</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>13685</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8263</v>
+        <v>8831</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19399</v>
+        <v>20287</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4152993125805906</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2507614735282826</v>
+        <v>0.2679761954499549</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5887006257507272</v>
+        <v>0.6156241961081331</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -3395,19 +3395,19 @@
         <v>25717</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18553</v>
+        <v>17439</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>34075</v>
+        <v>32951</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5054098845363955</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3646179569504812</v>
+        <v>0.3427268224629971</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6696668520513976</v>
+        <v>0.6475741663210082</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -3416,19 +3416,19 @@
         <v>39403</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30765</v>
+        <v>30499</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48828</v>
+        <v>49624</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4699908525745777</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3669584096490727</v>
+        <v>0.3637803676809803</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5824088021821181</v>
+        <v>0.5919034331547839</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>19268</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13554</v>
+        <v>12666</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24690</v>
+        <v>24122</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5847006874194094</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4112993742492727</v>
+        <v>0.384375803891867</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7492385264717173</v>
+        <v>0.7320238045500451</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -3466,19 +3466,19 @@
         <v>25167</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16809</v>
+        <v>17933</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>32331</v>
+        <v>33445</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4945901154636045</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3303331479486023</v>
+        <v>0.3524258336789918</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.635382043049519</v>
+        <v>0.6572731775370035</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>40</v>
@@ -3487,19 +3487,19 @@
         <v>44435</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>35010</v>
+        <v>34214</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>53073</v>
+        <v>53339</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5300091474254223</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4175911978178819</v>
+        <v>0.4080965668452161</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6330415903509273</v>
+        <v>0.6362196323190205</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>9288</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4143</v>
+        <v>5011</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14495</v>
+        <v>14603</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3355548086162224</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1496727243656326</v>
+        <v>0.1810298704602642</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5236645136875591</v>
+        <v>0.5275491104680607</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -3612,19 +3612,19 @@
         <v>11882</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6671</v>
+        <v>7413</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18075</v>
+        <v>18089</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4035984095953775</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.226590620134364</v>
+        <v>0.2518152760472273</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6139674747863444</v>
+        <v>0.6144350048607982</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -3633,19 +3633,19 @@
         <v>21170</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14109</v>
+        <v>13700</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29456</v>
+        <v>28273</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3706250715874451</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2470105302791881</v>
+        <v>0.2398467312524816</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5156932700760113</v>
+        <v>0.4949831818511088</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>18392</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13185</v>
+        <v>13077</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23537</v>
+        <v>22669</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6644451913837777</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.476335486312441</v>
+        <v>0.4724508895319395</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8503272756343676</v>
+        <v>0.8189701295397358</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -3683,19 +3683,19 @@
         <v>17558</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11365</v>
+        <v>11351</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>22769</v>
+        <v>22027</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5964015904046226</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3860325252136556</v>
+        <v>0.3855649951392019</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.773409379865636</v>
+        <v>0.7481847239527727</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>34</v>
@@ -3704,19 +3704,19 @@
         <v>35950</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>27664</v>
+        <v>28847</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>43011</v>
+        <v>43420</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6293749284125548</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4843067299239886</v>
+        <v>0.5050168181488912</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7529894697208117</v>
+        <v>0.7601532687475184</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>10124</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5148</v>
+        <v>5425</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16609</v>
+        <v>16200</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.344131939728001</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1749891999785254</v>
+        <v>0.1843859515400988</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5645494341223316</v>
+        <v>0.5506495926094992</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -3829,19 +3829,19 @@
         <v>11095</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6055</v>
+        <v>6040</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16914</v>
+        <v>16100</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3304596924685204</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1803293415692481</v>
+        <v>0.1799090303330663</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5037739293332608</v>
+        <v>0.4795272806355662</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>20</v>
@@ -3850,19 +3850,19 @@
         <v>21220</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14059</v>
+        <v>14179</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29238</v>
+        <v>29029</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3368449225022032</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2231785477618241</v>
+        <v>0.2250849975932716</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.464138762034376</v>
+        <v>0.4608207957690031</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>19296</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12811</v>
+        <v>13220</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>24272</v>
+        <v>23995</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.655868060271999</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4354505658776682</v>
+        <v>0.4493504073905009</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8250108000214746</v>
+        <v>0.8156140484599012</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>23</v>
@@ -3900,19 +3900,19 @@
         <v>22480</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>16661</v>
+        <v>17475</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>27520</v>
+        <v>27535</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6695403075314796</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.496226070666739</v>
+        <v>0.5204727193644338</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8196706584307518</v>
+        <v>0.8200909696669336</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>41</v>
@@ -3921,19 +3921,19 @@
         <v>41775</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>33757</v>
+        <v>33966</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>48936</v>
+        <v>48816</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6631550774977968</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.535861237965624</v>
+        <v>0.5391792042309973</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7768214522381759</v>
+        <v>0.7749150024067285</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>6373</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2287</v>
+        <v>2096</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14143</v>
+        <v>14353</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1761733059985527</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06320671200074809</v>
+        <v>0.05792403414105387</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3909412160897253</v>
+        <v>0.3967532119959645</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -4046,19 +4046,19 @@
         <v>6695</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2865</v>
+        <v>3218</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12392</v>
+        <v>12729</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.151094792464437</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.064654693827955</v>
+        <v>0.07262206363271415</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2796893939665921</v>
+        <v>0.2872741633550696</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -4067,19 +4067,19 @@
         <v>13068</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6624</v>
+        <v>6729</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22007</v>
+        <v>21398</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1623671549283361</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08229949311177409</v>
+        <v>0.08360418936027901</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2734257491389639</v>
+        <v>0.26586890719391</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>29804</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>22034</v>
+        <v>21824</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>33890</v>
+        <v>34081</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8238266940014474</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6090587839102737</v>
+        <v>0.6032467880040361</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9367932879992512</v>
+        <v>0.9420759658589462</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>34</v>
@@ -4117,19 +4117,19 @@
         <v>37613</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>31916</v>
+        <v>31579</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>41443</v>
+        <v>41090</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.848905207535563</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7203106060334079</v>
+        <v>0.7127258366449313</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9353453061720421</v>
+        <v>0.9273779363672857</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>60</v>
@@ -4138,19 +4138,19 @@
         <v>67417</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>58478</v>
+        <v>59087</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>73861</v>
+        <v>73756</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8376328450716639</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7265742508610356</v>
+        <v>0.7341310928060896</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9177005068882258</v>
+        <v>0.9163958106397209</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>61754</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>49474</v>
+        <v>48452</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>76254</v>
+        <v>75649</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2972298742433067</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2381225695088485</v>
+        <v>0.2332073644216135</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3670184161146139</v>
+        <v>0.3641066265390796</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>75</v>
@@ -4263,19 +4263,19 @@
         <v>82264</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>66852</v>
+        <v>65152</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>98032</v>
+        <v>98637</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2459032968918332</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1998354733789942</v>
+        <v>0.1947541617069954</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2930387831503881</v>
+        <v>0.2948484358868057</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>132</v>
@@ -4284,19 +4284,19 @@
         <v>144017</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>123985</v>
+        <v>124098</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>165040</v>
+        <v>166381</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2655673836358959</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2286282771276149</v>
+        <v>0.2288367072288141</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.304331994952572</v>
+        <v>0.3068053905934142</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>146011</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>131511</v>
+        <v>132116</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>158291</v>
+        <v>159313</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7027701257566933</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6329815838853863</v>
+        <v>0.6358933734609205</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7618774304911515</v>
+        <v>0.7667926355783864</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>236</v>
@@ -4334,19 +4334,19 @@
         <v>252272</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>236504</v>
+        <v>235899</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>267684</v>
+        <v>269384</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7540967031081668</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.706961216849612</v>
+        <v>0.7051515641131941</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8001645266210058</v>
+        <v>0.8052458382930046</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>371</v>
@@ -4355,19 +4355,19 @@
         <v>398284</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>377261</v>
+        <v>375920</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>418316</v>
+        <v>418203</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7344326163641042</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6956680050474281</v>
+        <v>0.6931946094065858</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7713717228723851</v>
+        <v>0.771163292771186</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>3140</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>926</v>
+        <v>973</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7153</v>
+        <v>6443</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2545286794606955</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07503047579222337</v>
+        <v>0.07888135858939951</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5797863960957726</v>
+        <v>0.5222171075798744</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7339</v>
+        <v>7608</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07384249898415891</v>
@@ -4735,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2226588710274604</v>
+        <v>0.2308272195491778</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -4744,19 +4744,19 @@
         <v>5574</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2083</v>
+        <v>2056</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12478</v>
+        <v>12385</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1230540712221825</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04598544497500923</v>
+        <v>0.04539215208443396</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2754667566019168</v>
+        <v>0.2734088457892229</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>9198</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5185</v>
+        <v>5895</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11412</v>
+        <v>11365</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7454713205393045</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4202136039042272</v>
+        <v>0.4777828924201257</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9249695242077767</v>
+        <v>0.9211186414106005</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -4794,7 +4794,7 @@
         <v>30527</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25622</v>
+        <v>25353</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>32961</v>
@@ -4803,7 +4803,7 @@
         <v>0.926157501015841</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7773411289725397</v>
+        <v>0.7691727804508223</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4815,19 +4815,19 @@
         <v>39725</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>32821</v>
+        <v>32914</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>43216</v>
+        <v>43243</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8769459287778175</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7245332433980833</v>
+        <v>0.7265911542107757</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9540145550249908</v>
+        <v>0.9546078479155661</v>
       </c>
     </row>
     <row r="6">
@@ -4922,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5579</v>
+        <v>5222</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1360635267848372</v>
@@ -4931,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4196602891115418</v>
+        <v>0.3927718359152782</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -4940,19 +4940,19 @@
         <v>4697</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1824</v>
+        <v>1806</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9797</v>
+        <v>10233</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07743160917117844</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03006195328333558</v>
+        <v>0.02977642654748086</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1615015514833776</v>
+        <v>0.1686880395331872</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -4961,19 +4961,19 @@
         <v>6506</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2711</v>
+        <v>2841</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12480</v>
+        <v>13483</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08797055445135994</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03665564479454853</v>
+        <v>0.03841493859572856</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1687418425554506</v>
+        <v>0.1823019873363943</v>
       </c>
     </row>
     <row r="8">
@@ -4990,7 +4990,7 @@
         <v>11485</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7715</v>
+        <v>8072</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>13294</v>
@@ -4999,7 +4999,7 @@
         <v>0.8639364732151628</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5803397108884573</v>
+        <v>0.6072281640847219</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -5011,19 +5011,19 @@
         <v>55968</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>50868</v>
+        <v>50432</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>58841</v>
+        <v>58859</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9225683908288216</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8384984485166225</v>
+        <v>0.8313119604668129</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9699380467166644</v>
+        <v>0.9702235734525191</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>65</v>
@@ -5032,19 +5032,19 @@
         <v>67453</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>61479</v>
+        <v>60476</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>71248</v>
+        <v>71118</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9120294455486401</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8312581574445488</v>
+        <v>0.8176980126636066</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9633443552054515</v>
+        <v>0.9615850614042715</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>10086</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4693</v>
+        <v>5285</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15211</v>
+        <v>15034</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4343434773812141</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2020956178511928</v>
+        <v>0.2275843495636058</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6550622366788686</v>
+        <v>0.6474202427791612</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -5157,19 +5157,19 @@
         <v>7629</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3270</v>
+        <v>3375</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14602</v>
+        <v>14175</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1547247622598714</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06631434982709523</v>
+        <v>0.06845864360840871</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2961611487374156</v>
+        <v>0.2874983177497772</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -5178,19 +5178,19 @@
         <v>17714</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10709</v>
+        <v>10291</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25690</v>
+        <v>25352</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2442518801595966</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1476532117594903</v>
+        <v>0.141894934356894</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3542158054726742</v>
+        <v>0.349562410787785</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>13135</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8010</v>
+        <v>8187</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18528</v>
+        <v>17936</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.565656522618786</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3449377633211312</v>
+        <v>0.3525797572208388</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.797904382148807</v>
+        <v>0.7724156504363943</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -5228,19 +5228,19 @@
         <v>41675</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>34702</v>
+        <v>35129</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>46034</v>
+        <v>45929</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8452752377401286</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7038388512625844</v>
+        <v>0.7125016822502217</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9336856501729047</v>
+        <v>0.9315413563915913</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>50</v>
@@ -5249,19 +5249,19 @@
         <v>54811</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>46835</v>
+        <v>47173</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>61816</v>
+        <v>62234</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7557481198404035</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6457841945273257</v>
+        <v>0.650437589212215</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8523467882405097</v>
+        <v>0.8581050656431063</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>9755</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5251</v>
+        <v>5154</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14149</v>
+        <v>14906</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4352580034229863</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2342986553622182</v>
+        <v>0.2299507963781316</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6313338640112912</v>
+        <v>0.6650992447458084</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -5374,19 +5374,19 @@
         <v>14551</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9053</v>
+        <v>9029</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20966</v>
+        <v>21265</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4609741576385361</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2867956821094551</v>
+        <v>0.2860562067544364</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6642257592053203</v>
+        <v>0.6736788835980337</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -5395,19 +5395,19 @@
         <v>24306</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16318</v>
+        <v>16733</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>31568</v>
+        <v>32235</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4502962814548476</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3023184070741429</v>
+        <v>0.3100095171676884</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5848346060266713</v>
+        <v>0.5971980266148099</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>12657</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8263</v>
+        <v>7506</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17161</v>
+        <v>17258</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5647419965770137</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3686661359887089</v>
+        <v>0.3349007552541919</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7657013446377821</v>
+        <v>0.7700492036218686</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -5445,19 +5445,19 @@
         <v>17014</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10599</v>
+        <v>10300</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22512</v>
+        <v>22536</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.539025842361464</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3357742407946795</v>
+        <v>0.3263211164019662</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7132043178905445</v>
+        <v>0.7139437932455635</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>27</v>
@@ -5466,19 +5466,19 @@
         <v>29671</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>22409</v>
+        <v>21742</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>37659</v>
+        <v>37244</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5497037185451524</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4151653939733289</v>
+        <v>0.4028019733851901</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6976815929258571</v>
+        <v>0.6899904828323117</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>15802</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9422</v>
+        <v>9887</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21835</v>
+        <v>21469</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4820023406342392</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2873972392450467</v>
+        <v>0.3015654855947552</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6660257334254513</v>
+        <v>0.6548763695872517</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -5591,19 +5591,19 @@
         <v>12248</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7652</v>
+        <v>7542</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17715</v>
+        <v>17801</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4852535379015227</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3031436165365504</v>
+        <v>0.2987964062787192</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7018511225365093</v>
+        <v>0.7052584461547552</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -5612,19 +5612,19 @@
         <v>28050</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19919</v>
+        <v>20157</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35925</v>
+        <v>36173</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4834166126408623</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3432774681449078</v>
+        <v>0.347389874697176</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6191219749132211</v>
+        <v>0.6234046560631386</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>16982</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10949</v>
+        <v>11315</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23362</v>
+        <v>22897</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5179976593657608</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3339742665745486</v>
+        <v>0.3451236304127484</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7126027607549532</v>
+        <v>0.6984345144052448</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -5662,19 +5662,19 @@
         <v>12993</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7526</v>
+        <v>7440</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17589</v>
+        <v>17699</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5147464620984773</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2981488774634908</v>
+        <v>0.2947415538452448</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6968563834634496</v>
+        <v>0.701203593721281</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>28</v>
@@ -5683,19 +5683,19 @@
         <v>29975</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>22100</v>
+        <v>21852</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>38106</v>
+        <v>37868</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5165833873591377</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3808780250867788</v>
+        <v>0.3765953439368618</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6567225318550916</v>
+        <v>0.6526101253028241</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>8742</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4223</v>
+        <v>4195</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15755</v>
+        <v>14736</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2385772100392606</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1152539726473475</v>
+        <v>0.1144869741187076</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.429978475309126</v>
+        <v>0.4021817695913229</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -5808,19 +5808,19 @@
         <v>13189</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7358</v>
+        <v>7813</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18410</v>
+        <v>19019</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4512396282350431</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2517340584065346</v>
+        <v>0.2673057861100546</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6298469178130649</v>
+        <v>0.6507035820287435</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -5829,19 +5829,19 @@
         <v>21931</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15201</v>
+        <v>14694</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>30005</v>
+        <v>29976</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3329448171152387</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2307732868037128</v>
+        <v>0.22307056908475</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4555126867182105</v>
+        <v>0.455076849571746</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>27899</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>20886</v>
+        <v>21905</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>32418</v>
+        <v>32446</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7614227899607394</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5700215246908741</v>
+        <v>0.5978182304086771</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8847460273526525</v>
+        <v>0.8855130258812924</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -5879,19 +5879,19 @@
         <v>16040</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10819</v>
+        <v>10210</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21871</v>
+        <v>21416</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.548760371764957</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3701530821869351</v>
+        <v>0.3492964179712565</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7482659415934658</v>
+        <v>0.7326942138899457</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>40</v>
@@ -5900,19 +5900,19 @@
         <v>43939</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>35865</v>
+        <v>35894</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>50669</v>
+        <v>51176</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6670551828847614</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5444873132817893</v>
+        <v>0.5449231504282539</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7692267131962872</v>
+        <v>0.7769294309152499</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>5417</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2305</v>
+        <v>2348</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10226</v>
+        <v>10073</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2486502686974029</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1058094005535248</v>
+        <v>0.1077534201621076</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4693811230905758</v>
+        <v>0.4623536895289129</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -6025,19 +6025,19 @@
         <v>10899</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5146</v>
+        <v>5739</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18058</v>
+        <v>19516</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2686691011180385</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1268558412187628</v>
+        <v>0.1414711901217058</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4451727855490003</v>
+        <v>0.4811146508533611</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -6046,19 +6046,19 @@
         <v>16316</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9930</v>
+        <v>9762</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24698</v>
+        <v>24941</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2616739764290406</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1592627084167037</v>
+        <v>0.1565639182183763</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3961107039556043</v>
+        <v>0.3999998144935856</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>16370</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11561</v>
+        <v>11714</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>19482</v>
+        <v>19439</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7513497313025971</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.530618876909424</v>
+        <v>0.537646310471087</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8941905994464751</v>
+        <v>0.8922465798378924</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>23</v>
@@ -6096,19 +6096,19 @@
         <v>29666</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>22507</v>
+        <v>21049</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>35419</v>
+        <v>34826</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7313308988819616</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5548272144509997</v>
+        <v>0.5188853491466389</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8731441587812372</v>
+        <v>0.8585288098782943</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>42</v>
@@ -6117,19 +6117,19 @@
         <v>46036</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>37654</v>
+        <v>37411</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>52422</v>
+        <v>52590</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7383260235709594</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6038892960443957</v>
+        <v>0.6000001855064142</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8407372915832962</v>
+        <v>0.8434360817816238</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>54751</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>42649</v>
+        <v>43041</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>66307</v>
+        <v>67977</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3369781723023659</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2624940483578942</v>
+        <v>0.264902479549987</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4081006630758622</v>
+        <v>0.4183779958695406</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>59</v>
@@ -6242,19 +6242,19 @@
         <v>65647</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>51785</v>
+        <v>52095</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>81895</v>
+        <v>81309</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2435591731291409</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1921303480164307</v>
+        <v>0.1932809052918325</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3038407881599366</v>
+        <v>0.3016669912027148</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>110</v>
@@ -6263,19 +6263,19 @@
         <v>120398</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>101529</v>
+        <v>101698</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>139655</v>
+        <v>141036</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2786938489210258</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2350172219506103</v>
+        <v>0.2354083753650303</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3232685664287526</v>
+        <v>0.3264660617577071</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>107726</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>96170</v>
+        <v>94500</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>119828</v>
+        <v>119436</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6630218276976342</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5918993369241378</v>
+        <v>0.5816220041304593</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7375059516421061</v>
+        <v>0.735097520450013</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>188</v>
@@ -6313,19 +6313,19 @@
         <v>203884</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>187636</v>
+        <v>188222</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>217746</v>
+        <v>217436</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7564408268708591</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6961592118400635</v>
+        <v>0.6983330087972852</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8078696519835695</v>
+        <v>0.8067190947081676</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>291</v>
@@ -6334,19 +6334,19 @@
         <v>311610</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>292353</v>
+        <v>290972</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>330479</v>
+        <v>330310</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7213061510789742</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6767314335712474</v>
+        <v>0.6735339382422929</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7649827780493899</v>
+        <v>0.7645916246349697</v>
       </c>
     </row>
     <row r="27">
@@ -6697,16 +6697,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15301</v>
+        <v>13310</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1382417351419557</v>
+        <v>0.1382417351419558</v>
       </c>
       <c r="O4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5855764693863548</v>
+        <v>0.509395294543275</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15474</v>
+        <v>12408</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1316856936459559</v>
@@ -6727,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5641634896207596</v>
+        <v>0.4523733928351932</v>
       </c>
     </row>
     <row r="5">
@@ -6757,16 +6757,16 @@
         <v>22517</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10828</v>
+        <v>12819</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>26129</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8617582648580442</v>
+        <v>0.8617582648580443</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4144235306136463</v>
+        <v>0.4906047054567244</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -6778,16 +6778,16 @@
         <v>23817</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11955</v>
+        <v>15021</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>27429</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8683143063540441</v>
+        <v>0.8683143063540442</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4358365103792394</v>
+        <v>0.5476266071648066</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -6882,19 +6882,19 @@
         <v>4919</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1001</v>
+        <v>963</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11419</v>
+        <v>11648</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2898357693775143</v>
+        <v>0.2898357693775144</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05896134731381625</v>
+        <v>0.05674948561905642</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.672773177836745</v>
+        <v>0.6862474845100952</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -6906,16 +6906,16 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8806</v>
+        <v>9154</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.0660529416614016</v>
+        <v>0.06605294166140162</v>
       </c>
       <c r="O7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2049731646435485</v>
+        <v>0.2130682104322011</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -6924,19 +6924,19 @@
         <v>7757</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2786</v>
+        <v>2807</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17053</v>
+        <v>16768</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1294257946560758</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04648144080972023</v>
+        <v>0.04682797231445944</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2845270826172309</v>
+        <v>0.2797703574883428</v>
       </c>
     </row>
     <row r="8">
@@ -6953,19 +6953,19 @@
         <v>12054</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5554</v>
+        <v>5325</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15972</v>
+        <v>16010</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7101642306224856</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3272268221632559</v>
+        <v>0.3137525154899053</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9410386526861835</v>
+        <v>0.9432505143809435</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>37</v>
@@ -6974,16 +6974,16 @@
         <v>40123</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>34155</v>
+        <v>33807</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>42961</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9339470583385984</v>
+        <v>0.9339470583385985</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7950268353564514</v>
+        <v>0.7869317895677989</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -6995,19 +6995,19 @@
         <v>52177</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>42881</v>
+        <v>43166</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>57148</v>
+        <v>57127</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8705742053439243</v>
+        <v>0.8705742053439242</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7154729173827686</v>
+        <v>0.7202296425116574</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9535185591902791</v>
+        <v>0.9531720276855407</v>
       </c>
     </row>
     <row r="9">
@@ -7099,19 +7099,19 @@
         <v>5942</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2166</v>
+        <v>2097</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11383</v>
+        <v>10920</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2486238828632692</v>
+        <v>0.2486238828632693</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09063109091279828</v>
+        <v>0.0877553814549662</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4762736892217763</v>
+        <v>0.4568986082258779</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -7120,19 +7120,19 @@
         <v>8803</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4799</v>
+        <v>4973</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13942</v>
+        <v>13585</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2150259264040719</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1172155159495025</v>
+        <v>0.1214753293615969</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3405672187208833</v>
+        <v>0.3318468158539312</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -7141,19 +7141,19 @@
         <v>14745</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9018</v>
+        <v>8945</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22256</v>
+        <v>21578</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2274103660070357</v>
+        <v>0.2274103660070358</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1390912754610814</v>
+        <v>0.1379568665156018</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.343260130308168</v>
+        <v>0.3327970684811998</v>
       </c>
     </row>
     <row r="11">
@@ -7170,19 +7170,19 @@
         <v>17958</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12517</v>
+        <v>12980</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21734</v>
+        <v>21803</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7513761171367308</v>
+        <v>0.7513761171367309</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5237263107782255</v>
+        <v>0.5431013917741222</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9093689090872018</v>
+        <v>0.9122446185450338</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>45</v>
@@ -7191,19 +7191,19 @@
         <v>32135</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26996</v>
+        <v>27353</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>36139</v>
+        <v>35965</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7849740735959282</v>
+        <v>0.7849740735959281</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6594327812791168</v>
+        <v>0.6681531841460681</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8827844840504977</v>
+        <v>0.878524670638403</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>60</v>
@@ -7212,19 +7212,19 @@
         <v>50093</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>42582</v>
+        <v>43260</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>55820</v>
+        <v>55893</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7725896339929644</v>
+        <v>0.7725896339929643</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.656739869691832</v>
+        <v>0.6672029315188005</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8609087245389185</v>
+        <v>0.8620431334843982</v>
       </c>
     </row>
     <row r="12">
@@ -7316,19 +7316,19 @@
         <v>17681</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11343</v>
+        <v>11052</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24672</v>
+        <v>25625</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.415940334914318</v>
+        <v>0.4159403349143179</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2668439371404436</v>
+        <v>0.260005682844684</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5803987429895092</v>
+        <v>0.6028171308116198</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -7337,19 +7337,19 @@
         <v>14447</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10410</v>
+        <v>10107</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19459</v>
+        <v>18750</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.44433216539398</v>
+        <v>0.4443321653939798</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3201634015325061</v>
+        <v>0.3108559075363436</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5984641085677386</v>
+        <v>0.5766610117523081</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -7358,19 +7358,19 @@
         <v>32128</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24436</v>
+        <v>23606</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40587</v>
+        <v>40363</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4282453078744727</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3257152605383745</v>
+        <v>0.3146564903440936</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5409891096675681</v>
+        <v>0.5380097553525159</v>
       </c>
     </row>
     <row r="14">
@@ -7387,19 +7387,19 @@
         <v>24827</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17836</v>
+        <v>16883</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>31165</v>
+        <v>31456</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5840596650856821</v>
+        <v>0.584059665085682</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4196012570104909</v>
+        <v>0.3971828691883802</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7331560628595563</v>
+        <v>0.7399943171553159</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>29</v>
@@ -7408,19 +7408,19 @@
         <v>18068</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13056</v>
+        <v>13765</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22105</v>
+        <v>22408</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5556678346060201</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4015358914322615</v>
+        <v>0.4233389882476917</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.679836598467494</v>
+        <v>0.6891440924636564</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>51</v>
@@ -7429,19 +7429,19 @@
         <v>42895</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>34436</v>
+        <v>34660</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>50587</v>
+        <v>51417</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5717546921255272</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.459010890332432</v>
+        <v>0.4619902446474841</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6742847394616256</v>
+        <v>0.6853435096559068</v>
       </c>
     </row>
     <row r="15">
@@ -7533,19 +7533,19 @@
         <v>17839</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12058</v>
+        <v>12030</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25080</v>
+        <v>24772</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3570301136306455</v>
+        <v>0.3570301136306454</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2413376996218226</v>
+        <v>0.240780995173923</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5019688229566117</v>
+        <v>0.4957942688801698</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -7554,19 +7554,19 @@
         <v>10797</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6909</v>
+        <v>6851</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15299</v>
+        <v>15287</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3250682423947474</v>
+        <v>0.3250682423947475</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2079987618543923</v>
+        <v>0.2062629042751356</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4605913835661514</v>
+        <v>0.4602442009234042</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>37</v>
@@ -7575,19 +7575,19 @@
         <v>28636</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21207</v>
+        <v>21389</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37662</v>
+        <v>37040</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3442669189701014</v>
+        <v>0.3442669189701013</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2549535694288564</v>
+        <v>0.257142506134293</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4527741475033388</v>
+        <v>0.4453000290604361</v>
       </c>
     </row>
     <row r="17">
@@ -7604,19 +7604,19 @@
         <v>32125</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24884</v>
+        <v>25192</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37906</v>
+        <v>37934</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6429698863693545</v>
+        <v>0.6429698863693543</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4980311770433882</v>
+        <v>0.5042057311198302</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7586623003781774</v>
+        <v>0.7592190048260772</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>37</v>
@@ -7625,19 +7625,19 @@
         <v>22419</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17917</v>
+        <v>17929</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26307</v>
+        <v>26365</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6749317576052525</v>
+        <v>0.6749317576052526</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5394086164338485</v>
+        <v>0.539755799076596</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7920012381456077</v>
+        <v>0.7937370957248645</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>72</v>
@@ -7646,19 +7646,19 @@
         <v>54544</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>45518</v>
+        <v>46140</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>61973</v>
+        <v>61791</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6557330810298986</v>
+        <v>0.6557330810298988</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5472258524966614</v>
+        <v>0.5546999709395639</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7450464305711439</v>
+        <v>0.7428574938657071</v>
       </c>
     </row>
     <row r="18">
@@ -7750,19 +7750,19 @@
         <v>15215</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10755</v>
+        <v>10708</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21102</v>
+        <v>20640</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.4019846217632911</v>
+        <v>0.4019846217632912</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2841454273817222</v>
+        <v>0.2829225912734256</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5575258731151789</v>
+        <v>0.5453242512794031</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -7771,19 +7771,19 @@
         <v>5494</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2827</v>
+        <v>2801</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8738</v>
+        <v>9009</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2143541792100983</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1102991872434627</v>
+        <v>0.1092714045617642</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3409250336630267</v>
+        <v>0.3515092829495109</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>34</v>
@@ -7792,19 +7792,19 @@
         <v>20709</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15619</v>
+        <v>15212</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27344</v>
+        <v>27280</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3262288130272372</v>
+        <v>0.3262288130272373</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2460502993408699</v>
+        <v>0.2396445752697287</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4307584652448199</v>
+        <v>0.4297529340835504</v>
       </c>
     </row>
     <row r="20">
@@ -7821,19 +7821,19 @@
         <v>22634</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>16747</v>
+        <v>17209</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>27094</v>
+        <v>27141</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5980153782367088</v>
+        <v>0.598015378236709</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4424741268848213</v>
+        <v>0.454675748720597</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7158545726182769</v>
+        <v>0.7170774087265743</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>38</v>
@@ -7842,19 +7842,19 @@
         <v>20136</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>16892</v>
+        <v>16621</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>22803</v>
+        <v>22829</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7856458207899019</v>
+        <v>0.7856458207899016</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6590749663369733</v>
+        <v>0.6484907170504894</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8897008127565371</v>
+        <v>0.890728595438236</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>68</v>
@@ -7863,19 +7863,19 @@
         <v>42770</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>36135</v>
+        <v>36199</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>47860</v>
+        <v>48267</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6737711869727627</v>
+        <v>0.6737711869727628</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5692415347551795</v>
+        <v>0.5702470659164495</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7539497006591299</v>
+        <v>0.7603554247302711</v>
       </c>
     </row>
     <row r="21">
@@ -7967,19 +7967,19 @@
         <v>6606</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3440</v>
+        <v>3287</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11168</v>
+        <v>11137</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2021289566960154</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1052534691033233</v>
+        <v>0.1005603949889812</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3416929963431413</v>
+        <v>0.3407728626033893</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -7988,19 +7988,19 @@
         <v>11293</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7420</v>
+        <v>7203</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15908</v>
+        <v>15650</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.256213576520529</v>
+        <v>0.2562135765205291</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1683349311578935</v>
+        <v>0.163415033711042</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3609124802725791</v>
+        <v>0.3550455567394876</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>31</v>
@@ -8009,19 +8009,19 @@
         <v>17900</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>12745</v>
+        <v>12589</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24065</v>
+        <v>24511</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2331856339010718</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1660320996765185</v>
+        <v>0.1640031298568231</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3135023890819635</v>
+        <v>0.3193128184704705</v>
       </c>
     </row>
     <row r="23">
@@ -8038,19 +8038,19 @@
         <v>26077</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>21515</v>
+        <v>21546</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>29243</v>
+        <v>29396</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7978710433039846</v>
+        <v>0.7978710433039844</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6583070036568589</v>
+        <v>0.6592271373966105</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8947465308966768</v>
+        <v>0.8994396050110186</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>61</v>
@@ -8059,19 +8059,19 @@
         <v>32785</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>28170</v>
+        <v>28428</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>36658</v>
+        <v>36875</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.743786423479471</v>
+        <v>0.7437864234794709</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6390875197274209</v>
+        <v>0.6449544432605124</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8316650688421068</v>
+        <v>0.8365849662889586</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>102</v>
@@ -8080,19 +8080,19 @@
         <v>58862</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>52697</v>
+        <v>52251</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>64017</v>
+        <v>64173</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7668143660989282</v>
+        <v>0.7668143660989283</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6864976109180363</v>
+        <v>0.6806871815295293</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8339679003234814</v>
+        <v>0.8359968701431768</v>
       </c>
     </row>
     <row r="24">
@@ -8184,19 +8184,19 @@
         <v>68202</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>55292</v>
+        <v>54197</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>83037</v>
+        <v>82263</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3324037477316307</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2694853046682004</v>
+        <v>0.264145318387112</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4047079870962601</v>
+        <v>0.4009326934426656</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>85</v>
@@ -8205,19 +8205,19 @@
         <v>57285</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>46564</v>
+        <v>46444</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>71064</v>
+        <v>71275</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2333703856574512</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1896955173478476</v>
+        <v>0.1892052638867351</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2895034083466314</v>
+        <v>0.2903638613774026</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>162</v>
@@ -8226,19 +8226,19 @@
         <v>125487</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>105415</v>
+        <v>109767</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>142949</v>
+        <v>146592</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2784601466698143</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2339195691244831</v>
+        <v>0.2435774812265698</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3172102975135616</v>
+        <v>0.3252938182688117</v>
       </c>
     </row>
     <row r="26">
@@ -8255,19 +8255,19 @@
         <v>136976</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>122141</v>
+        <v>122915</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>149886</v>
+        <v>150981</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6675962522683692</v>
+        <v>0.6675962522683695</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5952920129037397</v>
+        <v>0.5990673065573344</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7305146953317995</v>
+        <v>0.7358546816128879</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>259</v>
@@ -8276,19 +8276,19 @@
         <v>188182</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>174403</v>
+        <v>174192</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>198903</v>
+        <v>199023</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7666296143425489</v>
+        <v>0.7666296143425487</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7104965916533682</v>
+        <v>0.7096361386225973</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8103044826521524</v>
+        <v>0.8107947361132649</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>410</v>
@@ -8297,19 +8297,19 @@
         <v>325158</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>307696</v>
+        <v>304053</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>345230</v>
+        <v>340878</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7215398533301856</v>
+        <v>0.7215398533301854</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6827897024864386</v>
+        <v>0.6747061817311881</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7660804308755171</v>
+        <v>0.7564225187734301</v>
       </c>
     </row>
     <row r="27">
